--- a/DOCUMENTACION/Casos de Prueba.xlsx
+++ b/DOCUMENTACION/Casos de Prueba.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{220A882C-DB48-48D3-A4C9-51DF167B7CF2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7DB23F80-9B7D-474C-86DD-9FF0BF7891AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -65,6 +66,96 @@
   </si>
   <si>
     <t>Inscribirse en una actividad</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>package body</t>
+  </si>
+  <si>
+    <t>triggers</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>ACTIVIDAD</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>BIRACORA AXP</t>
+  </si>
+  <si>
+    <t>BITACORA USUARIO</t>
+  </si>
+  <si>
+    <t>CANTON</t>
+  </si>
+  <si>
+    <t>CONTACTO EMERGENCIA</t>
+  </si>
+  <si>
+    <t>CORREO</t>
+  </si>
+  <si>
+    <t>DISTRITO</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>EVENTO</t>
+  </si>
+  <si>
+    <t>INSTITUCION</t>
+  </si>
+  <si>
+    <t>NACIONALIDAD</t>
+  </si>
+  <si>
+    <t>OCUPACION</t>
+  </si>
+  <si>
+    <t>PAIS</t>
+  </si>
+  <si>
+    <t>PERSONA</t>
+  </si>
+  <si>
+    <t>PROVINCIA</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>TIPO PARTICIPANTE</t>
+  </si>
+  <si>
+    <t>TIPO PERSONA</t>
+  </si>
+  <si>
+    <t>TIPO PUBLICO</t>
+  </si>
+  <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>CATALOGOS</t>
+  </si>
+  <si>
+    <t>TABLAS</t>
+  </si>
+  <si>
+    <t>MARI</t>
   </si>
 </sst>
 </file>
@@ -96,15 +187,81 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -192,50 +349,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -247,6 +470,126 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -531,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -548,32 +891,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="4" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="3"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -588,10 +931,10 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -605,10 +948,10 @@
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="15">
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
         <f>+COUNTIF(E4:E53, "Pendiente")</f>
         <v>50</v>
       </c>
@@ -623,10 +966,10 @@
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="6">
         <f>+COUNTIF(E4:E54, "Con error")</f>
         <v>0</v>
       </c>
@@ -641,10 +984,10 @@
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="8">
         <f>+COUNTIF(E4:E55, "Certificado")</f>
         <v>0</v>
       </c>
@@ -1040,4 +1383,466 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A3AC1A-13A4-4AC5-A39A-5352C9801BAD}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="4" width="8" style="11" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="24" customWidth="1"/>
+    <col min="6" max="8" width="8" style="11" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="24" customWidth="1"/>
+    <col min="10" max="11" width="8" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="F1" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="J1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="47"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="39" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="F5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="F6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="F7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="F9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="F10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="F11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="F12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="F13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="F14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="F15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="F17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="F18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="F19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="F20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="F21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="F22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="F23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="F24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="F25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="F26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A3:XFD3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOCUMENTACION/Casos de Prueba.xlsx
+++ b/DOCUMENTACION/Casos de Prueba.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7DB23F80-9B7D-474C-86DD-9FF0BF7891AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{88491B07-9625-492F-AEEF-B0723E12BA97}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>MARI</t>
+  </si>
+  <si>
+    <t>NAKI</t>
+  </si>
+  <si>
+    <t>IG</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1396,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F15"/>
+      <selection activeCell="A16" sqref="A16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,15 +1474,27 @@
       <c r="B5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
+      <c r="G5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1485,15 +1503,27 @@
       <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
+      <c r="G6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1502,15 +1532,27 @@
       <c r="B7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
+      <c r="G7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1519,15 +1561,27 @@
       <c r="B8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
+      <c r="G8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1536,15 +1590,27 @@
       <c r="B9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
+      <c r="G9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1553,15 +1619,27 @@
       <c r="B10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
+      <c r="G10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1570,15 +1648,27 @@
       <c r="B11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
+      <c r="G11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1587,15 +1677,27 @@
       <c r="B12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
+      <c r="G12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1604,15 +1706,27 @@
       <c r="B13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
+      <c r="G13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1621,15 +1735,27 @@
       <c r="B14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
+      <c r="G14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1638,15 +1764,27 @@
       <c r="B15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
+      <c r="G15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
@@ -1670,15 +1808,27 @@
       <c r="B17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
+      <c r="G17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1687,15 +1837,27 @@
       <c r="B18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
+      <c r="G18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1704,15 +1866,27 @@
       <c r="B19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
+      <c r="G19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1721,15 +1895,27 @@
       <c r="B20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
+      <c r="G20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1738,15 +1924,27 @@
       <c r="B21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F21" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
+      <c r="G21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1755,15 +1953,27 @@
       <c r="B22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
+      <c r="C22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
+      <c r="G22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1772,15 +1982,27 @@
       <c r="B23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F23" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
+      <c r="G23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1789,15 +2011,27 @@
       <c r="B24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
+      <c r="G24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1806,15 +2040,27 @@
       <c r="B25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
+      <c r="G25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1823,15 +2069,27 @@
       <c r="B26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
+      <c r="G26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/DOCUMENTACION/Casos de Prueba.xlsx
+++ b/DOCUMENTACION/Casos de Prueba.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariela\Documents\GitHub\ControldeEventosBD\DOCUMENTACION\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C914A8D4-1EB8-4F40-B2DF-C585AD5842FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="161">
   <si>
     <t>Casos de prueba</t>
   </si>
@@ -499,18 +508,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="24"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -519,7 +533,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -529,38 +543,56 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -575,1004 +607,1273 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="70.71"/>
-    <col customWidth="1" min="3" max="3" width="123.14"/>
-    <col customWidth="1" min="4" max="4" width="9.43"/>
+    <col min="1" max="1" width="14.42578125" style="14"/>
+    <col min="2" max="2" width="54.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="D8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="D10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="8">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="D12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="D13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="8">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="G13" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="D14" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="D15" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="D16" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="D17" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="D18" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="D19" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="D20" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="D21" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="D22" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="D23" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="D24" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="D25" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="D26" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="D27" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="D28" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="D29" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="D30" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="D31" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="D32" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="D33" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="D34" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="D35" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="D36" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="D37" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="D38" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="D39" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="D40" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="D41" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="D42" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="D43" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="D44" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="D45" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="D46" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="D47" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="D48" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="D49" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="D50" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="D51" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="D52" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="D53" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="D54" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="D55" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="D57" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="D58" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="D59" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="D60" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="D61" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="D62" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="D63" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="D64" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="D65" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="D66" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="D67" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="D68" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="D69" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="D70" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="D71" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="D72" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="D73" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="D74" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="D75" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="D76" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="D77" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="D78" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="D79" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="D80" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="D81" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="D82" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="D83" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="D84" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="D85" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="D56" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D57" s="13"/>
+    </row>
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D77" s="13"/>
+    </row>
+    <row r="78" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D78" s="13"/>
+    </row>
+    <row r="79" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D79" s="13"/>
+    </row>
+    <row r="80" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D83" s="13"/>
+    </row>
+    <row r="84" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D84" s="13"/>
+    </row>
+    <row r="85" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D85" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="F7:G8"/>
     <mergeCell ref="A1:C4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>